--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +442,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -450,7 +450,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -458,7 +458,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>173</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -466,21 +466,21 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>175</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>111</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>17</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -514,5 +514,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -468,6 +468,7 @@
       <c r="B9">
         <v>113</v>
       </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">

--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -466,7 +466,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2"/>
     </row>

--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -2,24 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivio\Archivio\Archivio P\Programming\python\cruscotto\cruscottolive\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13788" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -48,7 +43,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -94,22 +88,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,7 +112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -132,44 +122,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -196,15 +186,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -231,7 +220,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -243,273 +231,346 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>213</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>133</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>23</v>
       </c>
     </row>

--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -1,61 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivio\Archivio\Archivio P\Programming\python\cruscotto\cruscottolive\service\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>Offerte</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,187 +420,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="B13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>33</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>23</v>
       </c>
+      <c r="C17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,9 @@
           <t>Offerte</t>
         </is>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -453,6 +456,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -464,6 +468,7 @@
       <c r="C3" t="n">
         <v>181</v>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -475,6 +480,7 @@
       <c r="C4" t="n">
         <v>319</v>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -483,7 +489,10 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>405</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -493,6 +502,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -502,6 +512,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -511,6 +522,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -520,6 +532,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -529,6 +542,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -538,6 +552,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -547,6 +562,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -556,6 +572,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -565,6 +582,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -574,6 +592,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -583,6 +602,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -592,6 +612,1227 @@
         <v>23</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Offerte</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>530</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,9 +444,6 @@
           <t>Offerte</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -456,7 +453,6 @@
         <v>8</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -468,7 +464,6 @@
       <c r="C3" t="n">
         <v>181</v>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -478,9 +473,8 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>319</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>310</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -489,10 +483,7 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>405</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -502,7 +493,6 @@
         <v>12</v>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -512,7 +502,6 @@
         <v>13</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -522,7 +511,6 @@
         <v>14</v>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -532,7 +520,6 @@
         <v>15</v>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -542,7 +529,6 @@
         <v>16</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -552,7 +538,6 @@
         <v>17</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -562,7 +547,6 @@
         <v>18</v>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -572,7 +556,6 @@
         <v>19</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -582,7 +565,6 @@
         <v>20</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -592,7 +574,6 @@
         <v>21</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -602,7 +583,6 @@
         <v>22</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -612,7 +592,6 @@
         <v>23</v>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -620,7 +599,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -628,7 +606,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -636,7 +613,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -644,7 +620,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -652,7 +627,6 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -660,7 +634,6 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -668,7 +641,6 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -676,7 +648,6 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -684,7 +655,6 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -692,7 +662,6 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -700,7 +669,6 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -708,7 +676,6 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -716,7 +683,6 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -724,7 +690,6 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -732,7 +697,6 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -740,7 +704,6 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -748,7 +711,6 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -756,7 +718,6 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -764,7 +725,6 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -772,7 +732,6 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -780,7 +739,6 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -788,7 +746,6 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -796,7 +753,6 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -804,7 +760,6 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -812,7 +767,6 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -820,7 +774,6 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -828,7 +781,6 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -836,7 +788,6 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -844,7 +795,6 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -852,7 +802,6 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -860,7 +809,6 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -868,7 +816,6 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -876,7 +823,6 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -884,7 +830,6 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -892,7 +837,6 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -900,7 +844,6 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -908,7 +851,6 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -916,7 +858,6 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -924,7 +865,6 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -932,7 +872,6 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -940,7 +879,6 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -948,7 +886,6 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -956,7 +893,6 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -964,7 +900,6 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -972,7 +907,6 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -980,7 +914,6 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -988,7 +921,6 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -996,7 +928,6 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1004,7 +935,6 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1012,7 +942,6 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1020,7 +949,6 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1028,7 +956,6 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1036,7 +963,6 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1044,7 +970,6 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1052,7 +977,6 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1060,7 +984,6 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1068,7 +991,6 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1076,7 +998,6 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1084,7 +1005,6 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1092,7 +1012,6 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1100,7 +1019,6 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1108,7 +1026,6 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1116,7 +1033,6 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1124,7 +1040,6 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1132,7 +1047,6 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1140,7 +1054,6 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1148,7 +1061,6 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1156,7 +1068,6 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1164,7 +1075,6 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1172,7 +1082,6 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1180,7 +1089,6 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1188,7 +1096,6 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -1196,7 +1103,6 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1204,7 +1110,6 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -1212,7 +1117,6 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1220,7 +1124,6 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1228,7 +1131,6 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1236,7 +1138,6 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1244,7 +1145,6 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1252,7 +1152,6 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1260,7 +1159,6 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1268,7 +1166,6 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -1276,7 +1173,6 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -1284,7 +1180,6 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1292,7 +1187,6 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -1300,7 +1194,6 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -1308,7 +1201,6 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -1316,7 +1208,6 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -1324,7 +1215,6 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -1332,7 +1222,6 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -1340,7 +1229,6 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -1348,7 +1236,6 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -1356,7 +1243,6 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -1364,7 +1250,6 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -1372,7 +1257,6 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -1380,7 +1264,6 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -1388,7 +1271,6 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -1396,7 +1278,6 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -1404,7 +1285,6 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -1412,7 +1292,6 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -1420,7 +1299,6 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -1428,7 +1306,6 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -1436,7 +1313,6 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -1444,7 +1320,6 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -1452,7 +1327,6 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -1460,7 +1334,6 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -1468,7 +1341,6 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -1476,7 +1348,6 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -1484,7 +1355,6 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -1492,7 +1362,6 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -1500,7 +1369,6 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -1508,7 +1376,6 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -1516,7 +1383,6 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -1524,7 +1390,6 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -1532,7 +1397,6 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -1540,7 +1404,6 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -1548,7 +1411,6 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -1556,7 +1418,6 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -1564,7 +1425,6 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -1572,7 +1432,6 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -1580,7 +1439,6 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -1588,7 +1446,6 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -1596,7 +1453,6 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -1604,7 +1460,6 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -1612,7 +1467,6 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -1620,7 +1474,6 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -1628,7 +1481,6 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -1636,7 +1488,6 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -1644,7 +1495,6 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -1652,7 +1502,6 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -1660,7 +1509,6 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -1668,7 +1516,6 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -1676,7 +1523,6 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -1684,7 +1530,6 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -1692,7 +1537,6 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -1700,7 +1544,6 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -1708,7 +1551,6 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -1716,7 +1558,6 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -1724,7 +1565,6 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -1732,7 +1572,6 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -1740,7 +1579,6 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -1748,7 +1586,6 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -1756,7 +1593,6 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -1764,7 +1600,6 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -1772,7 +1607,6 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -1780,7 +1614,6 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -1788,7 +1621,6 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -1796,7 +1628,6 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -1804,7 +1635,6 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -1812,7 +1642,6 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -1820,19 +1649,335 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Offerte</t>
-        </is>
+      <c r="A169" s="1" t="n">
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="n">
-        <v>530</v>
-      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>310</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,9 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -492,7 +494,9 @@
       <c r="B6" t="n">
         <v>12</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -501,7 +505,9 @@
       <c r="B7" t="n">
         <v>13</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">

--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -450,19 +450,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>181</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -492,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -503,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -514,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -525,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -536,16 +538,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -554,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
@@ -563,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -572,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -581,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -590,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>

--- a/service/dayrealmob.xlsx
+++ b/service/dayrealmob.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -558,16 +558,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -576,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -585,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -594,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -611,7 +613,9 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
